--- a/rtw_excel_report/report_purchase_order_for_part/purchase_order_for_part.xlsx
+++ b/rtw_excel_report/report_purchase_order_for_part/purchase_order_for_part.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_purchase_order_for_part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84723723-2EC4-44F9-B448-95B832B58555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7311D30C-B146-41EE-8420-0C01945CB205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02D0CE77-5587-4803-AB74-D622CD74C233}"/>
+    <workbookView xWindow="3735" yWindow="1635" windowWidth="17535" windowHeight="13710" xr2:uid="{02D0CE77-5587-4803-AB74-D622CD74C233}"/>
   </bookViews>
   <sheets>
     <sheet name="発注書(部材用）" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,9 +275,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,7 +677,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F11" sqref="F11:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -845,7 +842,7 @@
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="19" t="s">

--- a/rtw_excel_report/report_purchase_order_for_part/purchase_order_for_part.xlsx
+++ b/rtw_excel_report/report_purchase_order_for_part/purchase_order_for_part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_purchase_order_for_part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C74E48D-C699-4FC1-A469-DFD241C1B723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC8D8FB-0C3E-4D55-91EA-E8ED7C08D665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02D0CE77-5587-4803-AB74-D622CD74C233}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02D0CE77-5587-4803-AB74-D622CD74C233}"/>
   </bookViews>
   <sheets>
     <sheet name="発注書(部材用）" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,10 @@
     <t>発注金額合計</t>
   </si>
   <si>
-    <t>Config</t>
+    <t>備送り先注記:</t>
   </si>
   <si>
-    <t>備送り先注記:</t>
+    <t>Custom</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -789,7 +789,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="15"/>
       <c r="G10" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -871,7 +871,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/rtw_excel_report/report_purchase_order_for_part/purchase_order_for_part.xlsx
+++ b/rtw_excel_report/report_purchase_order_for_part/purchase_order_for_part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_purchase_order_for_part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC8D8FB-0C3E-4D55-91EA-E8ED7C08D665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929AE5C1-DC69-4B96-B1EC-B7FB7286656E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02D0CE77-5587-4803-AB74-D622CD74C233}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02D0CE77-5587-4803-AB74-D622CD74C233}"/>
   </bookViews>
   <sheets>
     <sheet name="発注書(部材用）" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -814,9 +814,6 @@
       <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="B13" s="7"/>
       <c r="C13" s="16"/>
       <c r="E13" s="24"/>
@@ -834,6 +831,9 @@
       <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="B15" s="24"/>
       <c r="C15" s="17"/>
       <c r="E15" s="22"/>

--- a/rtw_excel_report/report_purchase_order_for_part/purchase_order_for_part.xlsx
+++ b/rtw_excel_report/report_purchase_order_for_part/purchase_order_for_part.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_purchase_order_for_part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A21882-D7FF-4BF2-B09C-5DA5FF96FA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC03D387-BA5D-474B-9A04-A191CCB5A5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,6 +469,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -477,9 +480,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,7 +778,7 @@
   <dimension ref="A1:AI1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -878,7 +878,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="71"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -915,7 +915,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="71"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -954,7 +954,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="71"/>
+      <c r="H5" s="67"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -991,7 +991,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="71"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -1030,7 +1030,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="71"/>
+      <c r="H7" s="67"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -1069,7 +1069,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="71"/>
+      <c r="H8" s="67"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -1106,7 +1106,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="71"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -1183,8 +1183,8 @@
       <c r="D11" s="14"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -1222,8 +1222,8 @@
       <c r="D12" s="14"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -1261,8 +1261,8 @@
       <c r="D13" s="14"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -1298,8 +1298,8 @@
       <c r="D14" s="14"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
@@ -1408,26 +1408,26 @@
       <c r="AI16" s="14"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67" t="s">
+      <c r="E17" s="68"/>
+      <c r="F17" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="68" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="14"/>
@@ -1459,14 +1459,14 @@
       <c r="AI17" s="14"/>
     </row>
     <row r="18" spans="1:35" ht="9" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
